--- a/articles/what-are-the-implications-of-decarbonisation-for-inequality/raw/Econ_observatory_figures_(2).xlsx
+++ b/articles/what-are-the-implications-of-decarbonisation-for-inequality/raw/Econ_observatory_figures_(2).xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chryx\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Github\eco\ecovisualisations\articles\what-are-the-implications-of-decarbonisation-for-inequality\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E89668-7A9E-482B-B1C4-F44CCE90482F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DE9F93-98E5-4F27-A181-69BA51474C13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="-90" windowWidth="18435" windowHeight="10980" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="radar" sheetId="7" r:id="rId4"/>
+    <sheet name="radar2" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="29">
   <si>
     <t>%Neg</t>
   </si>
@@ -132,6 +134,9 @@
   <si>
     <t>Total number of evaluations</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -197,6 +202,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF179FDB"/>
+      <color rgb="FFF4134D"/>
+      <color rgb="FFC55A11"/>
+      <color rgb="FF676A86"/>
+      <color rgb="FF36B7B4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3074,6 +3088,1755 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2106678018024887"/>
+          <c:y val="0.16073382370107839"/>
+          <c:w val="0.5941938268832414"/>
+          <c:h val="0.64712334883401901"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:radarChart>
+        <c:radarStyle val="filled"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="36B7B4">
+                <a:alpha val="40000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="36B7B4"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-4946-4881-B03A-D28035ED7962}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.7784636725806122E-2"/>
+                  <c:y val="6.910017101096963E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="179FDB"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-4946-4881-B03A-D28035ED7962}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17922335295440017"/>
+                  <c:y val="-7.1194115587059625E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="179FDB">
+                    <a:alpha val="50196"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-4946-4881-B03A-D28035ED7962}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.7103302454250694E-2"/>
+                  <c:y val="5.2348614402249721E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="179FDB"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4946-4881-B03A-D28035ED7962}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.7259510268184925E-2"/>
+                  <c:y val="3.5597057793529813E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="179FDB"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-4946-4881-B03A-D28035ED7962}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.4562726214840848E-2"/>
+                  <c:y val="-6.2818337282701201E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="F4134D"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-4946-4881-B03A-D28035ED7962}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8715191543126768E-2"/>
+                  <c:y val="6.2818337282699505E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="F4134D">
+                    <a:alpha val="69804"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-4946-4881-B03A-D28035ED7962}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1489255389372765"/>
+                  <c:y val="0.19054895642418898"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="F4134D">
+                    <a:alpha val="50196"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-4946-4881-B03A-D28035ED7962}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.20826045125365306"/>
+                  <c:y val="0.11935484083712929"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="F4134D">
+                    <a:alpha val="45098"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-4946-4881-B03A-D28035ED7962}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.6131849147789661E-2"/>
+                  <c:y val="1.6751556608719912E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="F4134D">
+                    <a:alpha val="69804"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-4946-4881-B03A-D28035ED7962}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12751564069341964"/>
+                  <c:y val="-0.10256800043791471"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="179FDB">
+                    <a:alpha val="50196"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-4946-4881-B03A-D28035ED7962}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet2!$A$2,Sheet2!$A$9,Sheet2!$A$16,Sheet2!$A$23,Sheet2!$A$30,Sheet2!$A$37,Sheet2!$A$44,Sheet2!$A$51,Sheet2!$A$58,Sheet2!$A$65)</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Building codes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Renewable Portfolio Standards</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R&amp;D funding</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Government procurement</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Auctions</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FITs/FIPs</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Taxes and Tax exemptions</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GHG emission allowance tradings schemes</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Green certificates</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>White certificates</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$F$7,Sheet2!$F$14,Sheet2!$F$21,Sheet2!$F$28,Sheet2!$F$35,Sheet2!$F$42,Sheet2!$F$49,Sheet2!$F$56,Sheet2!$F$63,Sheet2!$F$70)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85798816568047354</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72222222222222232</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48760330578512395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-4946-4881-B03A-D28035ED7962}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1938685536"/>
+        <c:axId val="1938681792"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="1938685536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="676A86"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1938681792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1938681792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="676A86">
+                  <a:alpha val="15000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="676A86"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1938685536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.17"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2106678018024887"/>
+          <c:y val="0.16073382370107839"/>
+          <c:w val="0.5941938268832414"/>
+          <c:h val="0.64712334883401901"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:radarChart>
+        <c:radarStyle val="filled"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="17000">
+                  <a:srgbClr val="F4134D">
+                    <a:alpha val="80000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="63000">
+                  <a:srgbClr val="179FDB"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="18300000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-4ED3-4F8F-8EFA-5CF1043C9786}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.7784636725806122E-2"/>
+                  <c:y val="6.910017101096963E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="179FDB"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-4ED3-4F8F-8EFA-5CF1043C9786}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17922335295440017"/>
+                  <c:y val="-7.1194115587059625E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="179FDB">
+                    <a:alpha val="50196"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-4ED3-4F8F-8EFA-5CF1043C9786}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.7103302454250694E-2"/>
+                  <c:y val="5.2348614402249721E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="179FDB"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4ED3-4F8F-8EFA-5CF1043C9786}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.7259510268184925E-2"/>
+                  <c:y val="3.5597057793529813E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="179FDB"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-4ED3-4F8F-8EFA-5CF1043C9786}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.4562726214840848E-2"/>
+                  <c:y val="-6.2818337282701201E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="F4134D"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-4ED3-4F8F-8EFA-5CF1043C9786}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8715191543126768E-2"/>
+                  <c:y val="6.2818337282699505E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="F4134D">
+                    <a:alpha val="69804"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-4ED3-4F8F-8EFA-5CF1043C9786}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1489255389372765"/>
+                  <c:y val="0.19054895642418898"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="F4134D">
+                    <a:alpha val="50196"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-4ED3-4F8F-8EFA-5CF1043C9786}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.20826045125365306"/>
+                  <c:y val="0.11935484083712929"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="F4134D">
+                    <a:alpha val="45098"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-4ED3-4F8F-8EFA-5CF1043C9786}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.6131849147789661E-2"/>
+                  <c:y val="1.6751556608719912E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="F4134D">
+                    <a:alpha val="69804"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-4ED3-4F8F-8EFA-5CF1043C9786}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12751564069341964"/>
+                  <c:y val="-0.10256800043791471"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{D2BBC299-0F85-46F5-AE4D-1E5566E62C3F}" type="VALUE">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="179FDB">
+                    <a:alpha val="50196"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-4ED3-4F8F-8EFA-5CF1043C9786}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet2!$A$2,Sheet2!$A$9,Sheet2!$A$16,Sheet2!$A$23,Sheet2!$A$30,Sheet2!$A$37,Sheet2!$A$44,Sheet2!$A$51,Sheet2!$A$58,Sheet2!$A$65)</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Building codes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Renewable Portfolio Standards</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R&amp;D funding</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Government procurement</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Auctions</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FITs/FIPs</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Taxes and Tax exemptions</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GHG emission allowance tradings schemes</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Green certificates</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>White certificates</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$F$7,Sheet2!$F$14,Sheet2!$F$21,Sheet2!$F$28,Sheet2!$F$35,Sheet2!$F$42,Sheet2!$F$49,Sheet2!$F$56,Sheet2!$F$63,Sheet2!$F$70)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85798816568047354</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72222222222222232</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48760330578512395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-4ED3-4F8F-8EFA-5CF1043C9786}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1938685536"/>
+        <c:axId val="1938681792"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="1938685536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="676A86"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1938681792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1938681792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="676A86">
+                  <a:alpha val="15000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="676A86"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1938685536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.17"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3194,6 +4957,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -4205,6 +6048,1016 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4802,6 +7655,72 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="1622153" y="0"/>
+    <xdr:ext cx="6152061" cy="6065108"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C5DA0C7-AF16-4642-9C65-370E686174B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="6152061" cy="6065108"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB9A117-49C0-4344-8312-B3DDD234E299}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5127,9 +8046,9 @@
       <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -5155,7 +8074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5181,7 +8100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -5207,7 +8126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -5233,7 +8152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -5259,7 +8178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -5285,7 +8204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -5311,7 +8230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -5337,7 +8256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -5363,7 +8282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -5389,7 +8308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -5415,7 +8334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B12">
         <f t="shared" ref="B12:H12" si="0">SUM(B2:B11)</f>
         <v>114</v>
@@ -5453,21 +8372,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.86328125" style="1"/>
+    <col min="2" max="2" width="24.6796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.86328125" style="2"/>
+    <col min="7" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5487,7 +8406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -5514,7 +8433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -5525,8 +8444,11 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -5550,7 +8472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -5562,7 +8484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -5586,7 +8508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
@@ -5610,7 +8532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
@@ -5634,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -5661,7 +8583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -5685,7 +8607,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
@@ -5709,7 +8631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
@@ -5733,7 +8655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -5757,7 +8679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -5781,7 +8703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
@@ -5805,7 +8727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -5832,7 +8754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
@@ -5856,7 +8778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
@@ -5880,7 +8802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
@@ -5904,7 +8826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
@@ -5928,7 +8850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
@@ -5952,7 +8874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -5976,7 +8898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -6003,7 +8925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
@@ -6027,7 +8949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
@@ -6051,7 +8973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B26" s="1" t="s">
         <v>8</v>
       </c>
@@ -6075,7 +8997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
@@ -6099,7 +9021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
@@ -6123,7 +9045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B29" s="1" t="s">
         <v>20</v>
       </c>
@@ -6138,7 +9060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -6165,7 +9087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
@@ -6189,7 +9111,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
@@ -6213,7 +9135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
@@ -6237,7 +9159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B34" s="1" t="s">
         <v>9</v>
       </c>
@@ -6261,7 +9183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
@@ -6285,7 +9207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B36" s="1" t="s">
         <v>20</v>
       </c>
@@ -6309,7 +9231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -6336,7 +9258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
@@ -6360,7 +9282,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B39" s="1" t="s">
         <v>14</v>
       </c>
@@ -6384,7 +9306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B40" s="1" t="s">
         <v>8</v>
       </c>
@@ -6408,7 +9330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B41" s="1" t="s">
         <v>9</v>
       </c>
@@ -6432,7 +9354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B42" s="1" t="s">
         <v>18</v>
       </c>
@@ -6456,7 +9378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B43" s="1" t="s">
         <v>20</v>
       </c>
@@ -6480,7 +9402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
@@ -6507,7 +9429,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B45" s="1" t="s">
         <v>6</v>
       </c>
@@ -6531,7 +9453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B46" s="1" t="s">
         <v>14</v>
       </c>
@@ -6555,7 +9477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B47" s="1" t="s">
         <v>8</v>
       </c>
@@ -6579,7 +9501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B48" s="1" t="s">
         <v>9</v>
       </c>
@@ -6603,7 +9525,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B49" s="1" t="s">
         <v>18</v>
       </c>
@@ -6627,7 +9549,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B50" s="1" t="s">
         <v>20</v>
       </c>
@@ -6651,7 +9573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
@@ -6678,7 +9600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B52" s="1" t="s">
         <v>6</v>
       </c>
@@ -6702,7 +9624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B53" s="1" t="s">
         <v>14</v>
       </c>
@@ -6726,7 +9648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B54" s="1" t="s">
         <v>8</v>
       </c>
@@ -6750,7 +9672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B55" s="1" t="s">
         <v>9</v>
       </c>
@@ -6774,7 +9696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B56" s="1" t="s">
         <v>18</v>
       </c>
@@ -6798,7 +9720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B57" s="1" t="s">
         <v>20</v>
       </c>
@@ -6822,7 +9744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A58" s="1" t="s">
         <v>23</v>
       </c>
@@ -6849,7 +9771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B59" s="1" t="s">
         <v>6</v>
       </c>
@@ -6873,7 +9795,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B60" s="1" t="s">
         <v>14</v>
       </c>
@@ -6897,7 +9819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B61" s="1" t="s">
         <v>8</v>
       </c>
@@ -6921,7 +9843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B62" s="1" t="s">
         <v>9</v>
       </c>
@@ -6945,7 +9867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B63" s="1" t="s">
         <v>18</v>
       </c>
@@ -6969,7 +9891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B64" s="1" t="s">
         <v>20</v>
       </c>
@@ -6993,7 +9915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -7020,7 +9942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B66" s="1" t="s">
         <v>6</v>
       </c>
@@ -7044,7 +9966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B67" s="1" t="s">
         <v>14</v>
       </c>
@@ -7068,7 +9990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B68" s="1" t="s">
         <v>8</v>
       </c>
@@ -7092,7 +10014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B69" s="1" t="s">
         <v>9</v>
       </c>
@@ -7116,7 +10038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B70" s="1" t="s">
         <v>18</v>
       </c>
@@ -7140,7 +10062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.75">
       <c r="B71" s="1" t="s">
         <v>20</v>
       </c>
@@ -7164,7 +10086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.75">
       <c r="H72" s="1">
         <v>705</v>
       </c>
@@ -7179,13 +10101,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2280B365-4B34-4FF9-9889-B4919885CE6F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DC835B-B171-4A79-9676-7E5D3B3BFF76}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>